--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
     <sheet name="principal" sheetId="2" r:id="rId2"/>
     <sheet name="analise" sheetId="3" r:id="rId3"/>
+    <sheet name="testes" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1515,7 +1516,7 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4765,4 +4766,20 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
     <sheet name="principal" sheetId="2" r:id="rId2"/>
     <sheet name="analise" sheetId="3" r:id="rId3"/>
-    <sheet name="testes" sheetId="5" r:id="rId4"/>
+    <sheet name="testes" sheetId="4" r:id="rId4"/>
+    <sheet name="dashboard_desempenho" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="116">
   <si>
     <t>Imagem</t>
   </si>
@@ -329,9 +333,6 @@
     <t>Desvio Padrão</t>
   </si>
   <si>
-    <t>Buscar outras</t>
-  </si>
-  <si>
     <t>Erro Quadratico</t>
   </si>
   <si>
@@ -347,6 +348,9 @@
     <t>Grupo 4</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Raiz Quadrada da quantidade de valores</t>
   </si>
   <si>
@@ -360,26 +364,88 @@
   </si>
   <si>
     <t>Quantidade</t>
+  </si>
+  <si>
+    <t>image_path</t>
+  </si>
+  <si>
+    <t>pixels_count</t>
+  </si>
+  <si>
+    <t>size_image</t>
+  </si>
+  <si>
+    <t>error_percentage</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>ncc</t>
+  </si>
+  <si>
+    <t>elapsed_time</t>
+  </si>
+  <si>
+    <t>MQ 1</t>
+  </si>
+  <si>
+    <t>Tempo de execução extraido do código</t>
+  </si>
+  <si>
+    <t>Tempo de execução em minutos</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>MQ1</t>
+  </si>
+  <si>
+    <t>MQ2</t>
+  </si>
+  <si>
+    <t>MQ 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -570,12 +636,36 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -717,12 +807,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -789,12 +873,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,12 +914,153 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -975,31 +1194,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1008,150 +1215,265 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="46" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1159,14 +1481,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,6 +1556,1468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="pt-BR" sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1080"/>
+              <a:t>Comparação de tempo de execução</a:t>
+            </a:r>
+            <a:endParaRPr sz="1080"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"MQ 1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MQ 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]principal!$D$8:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5.92428833643595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2574376543363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.83790522416433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.37325691779455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45193265279135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1256895105044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.54598079919815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.58540712594987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.68409989277522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7574073712031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.75304941336313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.83788719177247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.78092565536498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.92246989806493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.86413227319717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.75178646643957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.89498073657353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2798936287562</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6602635661761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7047102411588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.53552589813868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.54178781906763</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.55444870789847</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.56640050808588</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.53073998292287</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.50496731599172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4076285123825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"MQ 2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MQ 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:hueOff val="-1670000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]principal!$D$38:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4.17008814414342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.07179747025172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.69446178277333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.72807140350342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75289287964503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.09683322111766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.24849652846654</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.14851573705673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.75359020233154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.81324288845062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.75485942761103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.76310113668442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.22708440621694</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.81167581876119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.76929074525833</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.81062183380127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.92495219707489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.32950799067815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.69386285146078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.64169429540634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.77626155217489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.72464281320572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.35828059514364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.72518946329753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.70304886500041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.75483148495356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.69417678515116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="1"/>
+        <c:axId val="652150781"/>
+        <c:axId val="790885643"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="652150781"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790885643"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="790885643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000"/>
+                  <a:t>Tempo de Execução em minutos</a:t>
+                </a:r>
+                <a:endParaRPr sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.01546738399462"/>
+              <c:y val="0.284632216798519"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652150781"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="pt-BR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{943a809d-05a4-4628-b02f-01b487a0b092}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="pt-BR" sz="900"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10031">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-1670000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6033770" y="195580"/>
+        <a:ext cx="4721225" cy="3772535"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="principal"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="D8">
+            <v>5.92428833643595</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>8.2574376543363</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>4.83790522416433</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>5.37325691779455</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>5.45193265279135</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>5.1256895105044</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>5.54598079919815</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>5.58540712594987</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>4.68409989277522</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>4.7574073712031</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>4.75304941336313</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>4.83788719177247</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>4.78092565536498</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>4.92246989806493</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>4.86413227319717</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>4.75178646643957</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>4.89498073657353</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>5.2798936287562</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>6.6602635661761</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>5.7047102411588</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>4.53552589813868</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>4.54178781906763</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>4.55444870789847</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>4.56640050808588</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>4.53073998292287</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>4.50496731599172</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>4.4076285123825</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>4.17008814414342</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>4.07179747025172</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>3.69446178277333</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>3.72807140350342</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>3.75289287964503</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>4.09683322111766</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>4.24849652846654</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>4.14851573705673</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>3.75359020233154</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>3.81324288845062</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>3.75485942761103</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>3.76310113668442</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>4.22708440621694</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>3.81167581876119</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>3.76929074525833</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>3.81062183380127</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>3.92495219707489</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>4.32950799067815</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>3.69386285146078</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>3.64169429540634</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>3.77626155217489</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>3.72464281320572</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>4.35828059514364</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>3.72518946329753</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>3.70304886500041</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>3.75483148495356</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>3.69417678515116</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1516,8 +3307,8 @@
   <sheetPr/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1526,8 +3317,8 @@
     <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="23.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.8571428571429" style="68" customWidth="1"/>
+    <col min="6" max="6" width="10.4285714285714" style="68" customWidth="1"/>
     <col min="7" max="7" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1535,19 +3326,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1564,10 +3355,10 @@
       <c r="D3">
         <v>51.85546875</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="68">
         <v>0.423007376957685</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="68">
         <v>0.204164579510689</v>
       </c>
     </row>
@@ -1584,10 +3375,10 @@
       <c r="D4">
         <v>84.86328125</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="68">
         <v>0.413880403570753</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="68">
         <v>0.695303738117218</v>
       </c>
     </row>
@@ -1604,10 +3395,10 @@
       <c r="D5">
         <v>60.15625</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="68">
         <v>0.488426551688462</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="68">
         <v>0.533390820026398</v>
       </c>
     </row>
@@ -1624,10 +3415,10 @@
       <c r="D6">
         <v>96.6796875</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="68">
         <v>0.410387155774515</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="68">
         <v>0.606837868690491</v>
       </c>
     </row>
@@ -1644,10 +3435,10 @@
       <c r="D7">
         <v>96.484375</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="68">
         <v>0.3291015625</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="68">
         <v>0.623369753360748</v>
       </c>
     </row>
@@ -1664,10 +3455,10 @@
       <c r="D8">
         <v>94.04296875</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="68">
         <v>0.32672945800914</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="68">
         <v>0.709461510181427</v>
       </c>
     </row>
@@ -1684,10 +3475,10 @@
       <c r="D9">
         <v>97.75390625</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="68">
         <v>0.3681640625</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="68">
         <v>0.552709400653839</v>
       </c>
     </row>
@@ -1704,10 +3495,10 @@
       <c r="D10">
         <v>93.45703125</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="68">
         <v>0.393845290876925</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="68">
         <v>0.709340214729309</v>
       </c>
     </row>
@@ -1724,10 +3515,10 @@
       <c r="D11">
         <v>99.0234375</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="68">
         <v>0.391262895686547</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="68">
         <v>0.686295092105865</v>
       </c>
     </row>
@@ -1744,10 +3535,10 @@
       <c r="D12">
         <v>98.828125</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="68">
         <v>0.390354671282694</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="68">
         <v>0.715250134468079</v>
       </c>
     </row>
@@ -1764,10 +3555,10 @@
       <c r="D13">
         <v>90.625</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="68">
         <v>0.417063148789263</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="68">
         <v>0.665942907333374</v>
       </c>
     </row>
@@ -1784,10 +3575,10 @@
       <c r="D14">
         <v>99.90234375</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="68">
         <v>0.354815455590142</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="68">
         <v>0.647228419780731</v>
       </c>
     </row>
@@ -1804,10 +3595,10 @@
       <c r="D15">
         <v>94.43359375</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="68">
         <v>0.387622849385176</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="68">
         <v>0.514358460903168</v>
       </c>
     </row>
@@ -1824,10 +3615,10 @@
       <c r="D16">
         <v>98.92578125</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="68">
         <v>0.362630208333333</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="68">
         <v>0.683717846870422</v>
       </c>
     </row>
@@ -1844,10 +3635,10 @@
       <c r="D17">
         <v>89.84375</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="68">
         <v>0.388636957543592</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="68">
         <v>0.706366300582886</v>
       </c>
     </row>
@@ -1864,10 +3655,10 @@
       <c r="D18">
         <v>71.97265625</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="68">
         <v>0.360404501872836</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="68">
         <v>0.532127141952515</v>
       </c>
     </row>
@@ -1884,10 +3675,10 @@
       <c r="D19">
         <v>69.23828125</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="68">
         <v>0.565699640729387</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="68">
         <v>0.541957080364227</v>
       </c>
     </row>
@@ -1904,10 +3695,10 @@
       <c r="D20">
         <v>95.41015625</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="68">
         <v>0.390014132193755</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="68">
         <v>0.517609596252441</v>
       </c>
     </row>
@@ -1924,10 +3715,10 @@
       <c r="D21">
         <v>97.55859375</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="68">
         <v>0.355759353376925</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="68">
         <v>0.602146625518799</v>
       </c>
     </row>
@@ -1944,10 +3735,10 @@
       <c r="D22">
         <v>99.31640625</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="68">
         <v>0.402488941540166</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="68">
         <v>0.720021605491638</v>
       </c>
     </row>
@@ -1964,10 +3755,10 @@
       <c r="D23">
         <v>91.30859375</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="68">
         <v>0.551322282893428</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="68">
         <v>0.386879593133926</v>
       </c>
     </row>
@@ -1984,10 +3775,10 @@
       <c r="D24">
         <v>100</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="68">
         <v>0.375165576348081</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="68">
         <v>0.634380877017975</v>
       </c>
     </row>
@@ -2004,10 +3795,10 @@
       <c r="D25">
         <v>82.91015625</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="68">
         <v>0.357404979460019</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="68">
         <v>0.660808861255646</v>
       </c>
     </row>
@@ -2024,10 +3815,10 @@
       <c r="D26">
         <v>98.33984375</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="68">
         <v>0.384473144338699</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="68">
         <v>0.655570805072784</v>
       </c>
     </row>
@@ -2044,10 +3835,10 @@
       <c r="D27">
         <v>92.9464285714286</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="68">
         <v>0.370141068362275</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="68">
         <v>0.566553950309753</v>
       </c>
     </row>
@@ -2064,10 +3855,10 @@
       <c r="D28">
         <v>90.2777777777778</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="68">
         <v>0.48328776686219</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="68">
         <v>0.69773143529892</v>
       </c>
     </row>
@@ -2084,10 +3875,10 @@
       <c r="D29">
         <v>89.9408284023669</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="68">
         <v>0.46786638757839</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="68">
         <v>0.57273143529892</v>
       </c>
     </row>
@@ -2104,10 +3895,10 @@
       <c r="D30">
         <v>70.8473899147727</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="68">
         <v>0.322644179071975</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="68">
         <v>0.804036259651184</v>
       </c>
     </row>
@@ -2124,10 +3915,10 @@
       <c r="D31">
         <v>92.3076923076923</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="68">
         <v>0.498122286927114</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="68">
         <v>0.659117519855499</v>
       </c>
     </row>
@@ -2144,10 +3935,10 @@
       <c r="D32">
         <v>73.4954260953298</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="68">
         <v>0.261009246696823</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="68">
         <v>0.871571600437164</v>
       </c>
     </row>
@@ -2164,10 +3955,10 @@
       <c r="D33">
         <v>89.6880733944954</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="70">
         <v>0.250411547016889</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="68">
         <v>0.7022864818573</v>
       </c>
     </row>
@@ -2184,10 +3975,10 @@
       <c r="D34">
         <v>88.5416666666667</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="68">
         <v>0.468802923785511</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="68">
         <v>0.571870505809784</v>
       </c>
     </row>
@@ -2204,10 +3995,10 @@
       <c r="D35">
         <v>83.0687830687831</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="68">
         <v>0.428648499843317</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="68">
         <v>0.686707496643066</v>
       </c>
     </row>
@@ -2224,10 +4015,10 @@
       <c r="D36">
         <v>80.7291666666667</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="68">
         <v>0.50242454820416</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="68">
         <v>0.511370658874512</v>
       </c>
     </row>
@@ -2244,10 +4035,10 @@
       <c r="D37">
         <v>87.9399585921325</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="68">
         <v>0.374669125774108</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="68">
         <v>0.544112920761108</v>
       </c>
     </row>
@@ -2264,10 +4055,10 @@
       <c r="D38">
         <v>94.3452380952381</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="68">
         <v>0.340255519284371</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="68">
         <v>0.410182029008865</v>
       </c>
     </row>
@@ -2284,10 +4075,10 @@
       <c r="D39">
         <v>78.7878787878788</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="68">
         <v>0.348686227386312</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="68">
         <v>0.588086724281311</v>
       </c>
     </row>
@@ -2304,10 +4095,10 @@
       <c r="D40">
         <v>92.96875</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="68">
         <v>0.363453409813727</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="68">
         <v>0.58100038766861</v>
       </c>
     </row>
@@ -2324,10 +4115,10 @@
       <c r="D41">
         <v>95.2380952380952</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="68">
         <v>0.354497354497354</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="68">
         <v>0.8255215883255</v>
       </c>
     </row>
@@ -2344,10 +4135,10 @@
       <c r="D42">
         <v>78.6549707602339</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="68">
         <v>0.488304093567252</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="68">
         <v>0.538527727127075</v>
       </c>
     </row>
@@ -2364,10 +4155,10 @@
       <c r="D43">
         <v>67.636684303351</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="68">
         <v>0.448141808249823</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="68">
         <v>0.445090472698212</v>
       </c>
     </row>
@@ -2384,10 +4175,10 @@
       <c r="D44">
         <v>90.7610907610908</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="68">
         <v>0.205904025252076</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="68">
         <v>0.66362076997757</v>
       </c>
     </row>
@@ -2404,10 +4195,10 @@
       <c r="D45">
         <v>62.1875</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="68">
         <v>0.378343814107369</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="68">
         <v>0.675796210765839</v>
       </c>
     </row>
@@ -2424,10 +4215,10 @@
       <c r="D46">
         <v>96.5277777777778</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="68">
         <v>0.535472467817642</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="68">
         <v>0.689294040203094</v>
       </c>
     </row>
@@ -2444,10 +4235,10 @@
       <c r="D47">
         <v>96.2962962962963</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="68">
         <v>0.528264596536505</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="68">
         <v>0.754867076873779</v>
       </c>
     </row>
@@ -2464,10 +4255,10 @@
       <c r="D48">
         <v>92.6599326599327</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="68">
         <v>0.36857903656601</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="68">
         <v>0.646884024143219</v>
       </c>
     </row>
@@ -2484,10 +4275,10 @@
       <c r="D49">
         <v>88.1118881118881</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="68">
         <v>0.468017949021502</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="68">
         <v>0.333616971969604</v>
       </c>
     </row>
@@ -2504,10 +4295,10 @@
       <c r="D50">
         <v>62.2181285511364</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="68">
         <v>0.488304259242134</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="68">
         <v>0.602053344249725</v>
       </c>
     </row>
@@ -2524,10 +4315,10 @@
       <c r="D51">
         <v>97.900390625</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="68">
         <v>0.382407202656926</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="68">
         <v>0.616894960403442</v>
       </c>
     </row>
@@ -2544,10 +4335,10 @@
       <c r="D52">
         <v>45.1729910714286</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="68">
         <v>0.380285999217969</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="68">
         <v>0.497928887605667</v>
       </c>
     </row>
@@ -2564,35 +4355,35 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="43.5809523809524" customWidth="1"/>
-    <col min="2" max="2" width="21.7238095238095" style="27" customWidth="1"/>
-    <col min="3" max="3" width="24.7238095238095" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.8666666666667" style="28" customWidth="1"/>
-    <col min="5" max="5" width="15.0095238095238" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.7238095238095" style="62" customWidth="1"/>
+    <col min="3" max="3" width="24.7238095238095" style="63" customWidth="1"/>
+    <col min="4" max="4" width="14.8666666666667" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.0095238095238" style="63" customWidth="1"/>
     <col min="6" max="7" width="13.5809523809524" customWidth="1"/>
-    <col min="8" max="8" width="8.58095238095238" style="29" customWidth="1"/>
+    <col min="8" max="8" width="8.58095238095238" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="63" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2600,16 +4391,16 @@
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="65">
         <v>63</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="66">
         <v>95.2380952380952</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="66">
         <v>2.48294005070334</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="66">
         <v>32095.8253968254</v>
       </c>
     </row>
@@ -2617,16 +4408,16 @@
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="65">
         <v>143</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="66">
         <v>88.1118881118881</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="66">
         <v>1.364444446432</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="66">
         <v>11173.8624708625</v>
       </c>
     </row>
@@ -2634,16 +4425,16 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="65">
         <v>144</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="66">
         <v>96.5277777777778</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="66">
         <v>1.70932843725875</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="66">
         <v>22821.5324074074</v>
       </c>
     </row>
@@ -2651,16 +4442,16 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="65">
         <v>169</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="66">
         <v>89.9408284023669</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="66">
         <v>1.48333816024989</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="66">
         <v>17320.8165680473</v>
       </c>
     </row>
@@ -2668,16 +4459,16 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="65">
         <v>192</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="66">
         <v>88.5416666666667</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="66">
         <v>0.839565155117189</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="66">
         <v>7835.71527777778</v>
       </c>
     </row>
@@ -2685,16 +4476,16 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="65">
         <v>195</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="66">
         <v>92.3076923076923</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="66">
         <v>1.57529946585297</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="66">
         <v>20234.0512820513</v>
       </c>
     </row>
@@ -2702,16 +4493,16 @@
       <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="65">
         <v>342</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="66">
         <v>78.6549707602339</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="66">
         <v>2.54102522240269</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="66">
         <v>21623.4385964912</v>
       </c>
     </row>
@@ -2719,16 +4510,16 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="65">
         <v>360</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="66">
         <v>90.2777777777778</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="66">
         <v>0.83530604292899</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="66">
         <v>15975.3722222222</v>
       </c>
     </row>
@@ -2736,16 +4527,16 @@
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="65">
         <v>567</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="66">
         <v>83.0687830687831</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="66">
         <v>0.764069959883054</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="66">
         <v>8302.47971781305</v>
       </c>
     </row>
@@ -2753,16 +4544,16 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="65">
         <v>957</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="66">
         <v>78.7878787878788</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="66">
         <v>1.20010193064723</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="66">
         <v>11768.3869731801</v>
       </c>
     </row>
@@ -2770,16 +4561,16 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="65">
         <v>960</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="66">
         <v>80.7291666666667</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="66">
         <v>1.37105877857771</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="66">
         <v>12348.5236111111</v>
       </c>
     </row>
@@ -2787,16 +4578,16 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="B13" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C13" s="66">
         <v>51.85546875</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="66">
         <v>0.838312805519442</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="66">
         <v>12540.5504557292</v>
       </c>
     </row>
@@ -2804,16 +4595,16 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="B14" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C14" s="66">
         <v>60.15625</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="66">
         <v>0.845898875200358</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="66">
         <v>5979.56608072917</v>
       </c>
     </row>
@@ -2821,16 +4612,16 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="B15" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="66">
         <v>69.23828125</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="66">
         <v>0.797975851545744</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="66">
         <v>13772.6712239583</v>
       </c>
     </row>
@@ -2838,16 +4629,16 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="B16" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="66">
         <v>71.97265625</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="66">
         <v>0.90723544826971</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="66">
         <v>6634.69661458333</v>
       </c>
     </row>
@@ -2855,16 +4646,16 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="B17" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C17" s="66">
         <v>82.91015625</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="66">
         <v>1.08457882938325</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="66">
         <v>7699.07421875</v>
       </c>
     </row>
@@ -2872,16 +4663,16 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C18" s="66">
         <v>84.86328125</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="66">
         <v>0.922550790721476</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="66">
         <v>8025.58561197917</v>
       </c>
     </row>
@@ -2889,16 +4680,16 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B19" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C19" s="66">
         <v>89.84375</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="66">
         <v>1.0160852567902</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="66">
         <v>8118.27180989583</v>
       </c>
     </row>
@@ -2906,16 +4697,16 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="B20" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="66">
         <v>90.625</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="66">
         <v>1.07335028417615</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="66">
         <v>9339.25813802083</v>
       </c>
     </row>
@@ -2923,16 +4714,16 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="31">
+      <c r="B21" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C21" s="66">
         <v>91.30859375</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="66">
         <v>0.693335440701425</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="66">
         <v>9839.32259114583</v>
       </c>
     </row>
@@ -2940,16 +4731,16 @@
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="31">
+      <c r="B22" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C22" s="66">
         <v>93.45703125</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="66">
         <v>0.806533165989523</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="66">
         <v>7061.1376953125</v>
       </c>
     </row>
@@ -2957,16 +4748,16 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="B23" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C23" s="66">
         <v>94.04296875</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="66">
         <v>1.14457765338719</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="66">
         <v>6324.42740885417</v>
       </c>
     </row>
@@ -2974,19 +4765,19 @@
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C24" s="31">
+      <c r="B24" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C24" s="66">
         <v>94.43359375</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="66">
         <v>1.02464606740115</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="66">
         <v>5216.81217447917</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="67">
         <f>QUARTILE(B2:B51,1)</f>
         <v>1024</v>
       </c>
@@ -2995,19 +4786,19 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="B25" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="66">
         <v>95.41015625</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="66">
         <v>0.789110995517099</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="66">
         <v>6441.08235677083</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="66">
         <f>QUARTILE(B2:B51,3)</f>
         <v>1820.25</v>
       </c>
@@ -3016,19 +4807,19 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="B26" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="66">
         <v>96.484375</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="66">
         <v>1.18278038952791</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="66">
         <v>5653.32389322917</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="66">
         <f>H25-H24</f>
         <v>796.25</v>
       </c>
@@ -3037,16 +4828,16 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="B27" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="66">
         <v>96.6796875</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="66">
         <v>0.924962425624733</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="66">
         <v>9505.28971354167</v>
       </c>
     </row>
@@ -3054,16 +4845,16 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="66">
         <v>97.55859375</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="66">
         <v>0.779331859488869</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="66">
         <v>6480.76627604167</v>
       </c>
     </row>
@@ -3071,16 +4862,16 @@
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="B29" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="66">
         <v>97.75390625</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="66">
         <v>1.03331199141793</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="66">
         <v>7881.16015625</v>
       </c>
     </row>
@@ -3088,16 +4879,16 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="B30" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="66">
         <v>98.33984375</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="66">
         <v>1.03331808024201</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="66">
         <v>5696.2646484375</v>
       </c>
     </row>
@@ -3105,16 +4896,16 @@
       <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B31" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C31" s="66">
         <v>98.828125</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="66">
         <v>0.820182535969992</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="66">
         <v>7171.57552083333</v>
       </c>
     </row>
@@ -3122,16 +4913,16 @@
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B32" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C32" s="66">
         <v>98.92578125</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="66">
         <v>1.66662067220565</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="66">
         <v>5223.94759114583</v>
       </c>
     </row>
@@ -3139,16 +4930,16 @@
       <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C33" s="31">
+      <c r="B33" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C33" s="66">
         <v>99.0234375</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="66">
         <v>1.02693685083336</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="66">
         <v>7127.9765625</v>
       </c>
     </row>
@@ -3156,16 +4947,16 @@
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C34" s="31">
+      <c r="B34" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C34" s="66">
         <v>99.31640625</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="66">
         <v>0.789110502896811</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="66">
         <v>7219.12044270833</v>
       </c>
     </row>
@@ -3173,16 +4964,16 @@
       <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C35" s="31">
+      <c r="B35" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C35" s="66">
         <v>99.90234375</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="66">
         <v>1.33843056044939</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="66">
         <v>5544.04752604167</v>
       </c>
     </row>
@@ -3190,16 +4981,16 @@
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="30">
-        <v>1024</v>
-      </c>
-      <c r="C36" s="32">
+      <c r="B36" s="65">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="67">
         <v>100</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="66">
         <v>0.782071413305328</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="66">
         <v>4360.73274739583</v>
       </c>
     </row>
@@ -3207,16 +4998,16 @@
       <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="65">
         <v>1485</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="66">
         <v>92.6599326599327</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="66">
         <v>1.32274471267522</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="66">
         <v>14957.0799102132</v>
       </c>
     </row>
@@ -3224,16 +5015,16 @@
       <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="65">
         <v>1485</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="66">
         <v>96.2962962962963</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="66">
         <v>1.45405057678211</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="66">
         <v>16642.0053872054</v>
       </c>
     </row>
@@ -3241,16 +5032,16 @@
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="65">
         <v>1932</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="66">
         <v>87.9399585921325</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="66">
         <v>3.67039288099722</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="66">
         <v>13846.0163906142</v>
       </c>
     </row>
@@ -3258,16 +5049,16 @@
       <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="65">
         <v>2048</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="66">
         <v>97.900390625</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="66">
         <v>1.06513926941072</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="66">
         <v>52975.3678385417</v>
       </c>
     </row>
@@ -3275,16 +5066,16 @@
       <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="65">
         <v>2268</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="66">
         <v>67.636684303351</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="66">
         <v>2.78715706602952</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="66">
         <v>9633.48633156967</v>
       </c>
     </row>
@@ -3292,16 +5083,16 @@
       <c r="A42" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="65">
         <v>6400</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="66">
         <v>62.1875</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="66">
         <v>1.03810485467137</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="66">
         <v>52610.26671875</v>
       </c>
     </row>
@@ -3309,16 +5100,16 @@
       <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="65">
         <v>7168</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="66">
         <v>45.1729910714286</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="66">
         <v>0.943255902999851</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="66">
         <v>47277.6180710566</v>
       </c>
     </row>
@@ -3326,16 +5117,16 @@
       <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="65">
         <v>7371</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="66">
         <v>90.7610907610908</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="66">
         <v>2.11932991686787</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="66">
         <v>9465.43544521322</v>
       </c>
     </row>
@@ -3343,16 +5134,16 @@
       <c r="A45" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="65">
         <v>8960</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="66">
         <v>92.9464285714286</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="66">
         <v>1.04107091626619</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="66">
         <v>55419.8899553571</v>
       </c>
     </row>
@@ -3360,16 +5151,16 @@
       <c r="A46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="65">
         <v>8960</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="66">
         <v>92.96875</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="66">
         <v>1.0601274830389</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="66">
         <v>57465.4501488095</v>
       </c>
     </row>
@@ -3377,16 +5168,16 @@
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="65">
         <v>10752</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="66">
         <v>94.3452380952381</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="66">
         <v>1.00784041032555</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="66">
         <v>62213.2716393849</v>
       </c>
     </row>
@@ -3394,16 +5185,16 @@
       <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="65">
         <v>13625</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="66">
         <v>89.6880733944954</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="66">
         <v>1.2478457181313</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="66">
         <v>7128.51464220184</v>
       </c>
     </row>
@@ -3411,16 +5202,16 @@
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="65">
         <v>16616</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="66">
         <v>73.4954260953298</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="66">
         <v>3.27027215449622</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="66">
         <v>12746.4247512438</v>
       </c>
     </row>
@@ -3428,16 +5219,16 @@
       <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50" s="65">
         <v>45056</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="66">
         <v>62.2181285511364</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="66">
         <v>1.43638628256647</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="66">
         <v>18146.4140107126</v>
       </c>
     </row>
@@ -3445,16 +5236,16 @@
       <c r="A51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="65">
         <v>45056</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="66">
         <v>70.8473899147727</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="66">
         <v>1.30926504569214</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="66">
         <v>13996.7092581084</v>
       </c>
     </row>
@@ -3469,10 +5260,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD55"/>
+  <dimension ref="A1:XFC55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3481,1245 +5272,1223 @@
     <col min="7" max="7" width="40.1428571428571" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="13.2952380952381" customWidth="1"/>
-    <col min="11" max="11" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="36" customFormat="1" ht="26.25" customHeight="1" spans="1:1">
+      <c r="A1" s="37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="40">
         <v>63</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="40">
         <v>63</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="40">
         <v>63</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="41">
         <v>63</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="42">
         <v>63</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="43">
         <f>MEDIAN(principal!D2:D12)</f>
         <v>1.37105877857771</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="43">
         <f>VAR(principal!D2:D12)</f>
         <v>0.363408347269596</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="43">
         <f>STDEV(principal!D2:D12)</f>
         <v>0.602833598325106</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="40">
         <v>143</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="40">
         <v>143</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="40">
         <v>143</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="41">
         <v>143</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="42">
         <v>143</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="43">
         <f>MEDIAN(principal!E2:E12)</f>
         <v>15975.3722222222</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="43">
         <f>VAR(principal!E2:E12)</f>
         <v>53459310.5505726</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="43">
         <f>STDEV(principal!E2:E12)</f>
         <v>7311.58741659926</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="40">
         <v>144</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="40">
         <v>144</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="40">
         <v>144</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="41">
         <v>144</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="42">
         <v>144</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="43">
         <f>MEDIAN(principal!C2:C12)</f>
         <v>88.5416666666667</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="43">
         <f>VAR(principal!D2:D12)</f>
         <v>0.363408347269596</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="43">
         <f>STDEV(principal!C2:C12)</f>
         <v>6.31848475915016</v>
       </c>
-      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="40">
         <v>169</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="40">
         <v>169</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="40">
         <v>169</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="41">
         <v>169</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="42">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5">
+    <row r="7" spans="1:10">
+      <c r="A7" s="40">
         <v>192</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="40">
         <v>192</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="40">
         <v>192</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="41">
         <v>192</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="42">
         <v>192</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="40">
         <v>195</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="40">
         <v>195</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="40">
         <v>195</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="41">
         <v>195</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="42">
         <v>195</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="45">
         <f>MEDIAN(principal!D13:D41)</f>
         <v>1.02464606740115</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="45">
         <f>VAR(principal!D13:D41)</f>
         <v>0.392596645476888</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="45">
         <f>STDEV(principal!D13:D41)</f>
         <v>0.626575331047184</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="40">
         <v>342</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="40">
         <v>342</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="40">
         <v>342</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="41">
         <v>342</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="42">
         <v>342</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="45">
         <f>MEDIAN(principal!E13:E41)</f>
         <v>7219.12044270833</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="45">
         <f>VAR(principal!E13:E41)</f>
         <v>78650587.5604161</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="45">
         <f>STDEV(principal!E13:E41)</f>
         <v>8868.51664938484</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="40">
         <v>360</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="40">
         <v>360</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="40">
         <v>360</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="41">
         <v>360</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="42">
         <v>360</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="45">
         <f>MEDIAN(principal!C13:C41)</f>
         <v>94.43359375</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="45">
         <f>VAR(principal!C13:C41)</f>
         <v>166.469759940893</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="45">
         <f>STDEV(principal!C13:C41)</f>
         <v>12.902316068865</v>
       </c>
-      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="40">
         <v>567</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="40">
         <v>567</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="40">
         <v>567</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="41">
         <v>567</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="42">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11">
+    <row r="12" spans="1:10">
+      <c r="A12" s="46">
         <v>957</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="40">
         <v>957</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="40">
         <v>957</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="41">
         <v>957</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="42">
         <v>957</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="46">
         <v>960</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="40">
         <v>960</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="40">
         <v>960</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="41">
         <v>960</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="42">
         <v>960</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="48">
         <f>MEDIAN(principal!D42:D46)</f>
         <v>1.04107091626619</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="48">
         <f>VAR(principal!D42:D46)</f>
         <v>0.243491500125914</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="48">
         <f>STDEV(principal!D42:D46)</f>
         <v>0.493448579008911</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="13">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B14" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="48">
         <f>MEDIAN(principal!E42:E46)</f>
         <v>52610.26671875</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="48">
         <f>VAR(principal!E42:E46)</f>
         <v>397061384.114039</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="48">
         <f>STDEV(principal!E42:E46)</f>
         <v>19926.399175818</v>
       </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="13">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="48">
         <f>MEDIAN(principal!C42:C46)</f>
         <v>90.7610907610908</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="48">
         <f>VAR(principal!C42:C46)</f>
         <v>482.710066791659</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="48">
         <f>STDEV(principal!C42:C46)</f>
         <v>21.9706637767651</v>
       </c>
-      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="A16" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D16" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B17" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B18" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="51">
         <f>MEDIAN(principal!D47:D51)</f>
         <v>1.30926504569214</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="51">
         <f>VAR(principal!D47:D51)</f>
         <v>0.840254148493905</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="51">
         <f>STDEV(principal!D47:D51)</f>
         <v>0.916653777875761</v>
       </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="16">
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="51">
         <f>MEDIAN(principal!E47:E51)</f>
         <v>13996.7092581084</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="51">
         <f>VAR(principal!E47:E51)</f>
         <v>499804724.314042</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="51">
         <f>STDEV(principal!E47:E51)</f>
         <v>22356.3128514977</v>
       </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1024</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="16">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1024</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="51">
         <f>MEDIAN(principal!C47:C51)</f>
         <v>73.4954260953298</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="51">
         <f>VAR(principal!C47:C51)</f>
         <v>181.056430884174</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="51">
         <f>STDEV(principal!C47:C51)</f>
         <v>13.4557211209275</v>
       </c>
-      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="A21" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E21" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="A22" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E22" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="A23" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B23" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E23" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1024</v>
+      <c r="A24" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B24" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E24" s="49">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1024</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="A26" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E26" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="A27" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E27" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="A28" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E28" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="A29" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E29" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="A30" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B30" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D30" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="A31" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C31" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D31" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E31" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="A32" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C32" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E32" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="A33" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B33" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C33" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D33" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E33" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="A34" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C34" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D34" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E34" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="A35" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B35" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C35" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E35" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="A36" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B36" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E36" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11">
-        <v>1024</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1024</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="A37" s="46">
+        <v>1024</v>
+      </c>
+      <c r="B37" s="40">
+        <v>1024</v>
+      </c>
+      <c r="C37" s="40">
+        <v>1024</v>
+      </c>
+      <c r="D37" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E37" s="49">
         <v>1024</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11">
+      <c r="A38" s="46">
         <v>1485</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="40">
         <v>1485</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="40">
         <v>1485</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="41">
         <v>1485</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="49">
         <v>1485</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="11">
+      <c r="A39" s="46">
         <v>1485</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="40">
         <v>1485</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="40">
         <v>1485</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="41">
         <v>1485</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="49">
         <v>1485</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="11">
+      <c r="A40" s="46">
         <v>1932</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="40">
         <v>1932</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="40">
         <v>1932</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="41">
         <v>1932</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="49">
         <v>1932</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="11">
+      <c r="A41" s="46">
         <v>2048</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="40">
         <v>2048</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="40">
         <v>2048</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="41">
         <v>2048</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="49">
         <v>2048</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11">
+      <c r="A42" s="46">
         <v>2268</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="40">
         <v>2268</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="40">
         <v>2268</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="41">
         <v>2268</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="49">
         <v>2268</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="18">
+      <c r="A43" s="53">
         <v>6400</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="46">
         <v>6400</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="46">
         <v>6400</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="46">
         <v>6400</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="54">
         <v>6400</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="52">
         <f>SQRT(COUNT(A3:A52))</f>
         <v>7.07106781186548</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18">
+      <c r="A44" s="53">
         <v>7168</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="46">
         <v>7168</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="46">
         <v>7168</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="46">
         <v>7168</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="54">
         <v>7168</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18">
+      <c r="A45" s="53">
         <v>7371</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="46">
         <v>7371</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="46">
         <v>7371</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="46">
         <v>7371</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="54">
         <v>7371</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="20">
+      <c r="A46" s="55">
         <v>8960</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="53">
         <v>8960</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="46">
         <v>8960</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="46">
         <v>8960</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="54">
         <v>8960</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="52" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="20">
+      <c r="A47" s="55">
         <v>8960</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="53">
         <v>8960</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="46">
         <v>8960</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="46">
         <v>8960</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="54">
         <v>8960</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="52">
         <v>7</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="52">
         <f>E3</f>
         <v>63</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="57">
         <f t="shared" ref="I47:I53" si="0">H47+$G$49</f>
         <v>6490.57142857143</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="52">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I47)</f>
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="20">
+      <c r="A48" s="55">
         <v>10752</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="53">
         <v>10752</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="46">
         <v>10752</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="46">
         <v>10752</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="56">
         <v>10752</v>
       </c>
       <c r="G48">
         <f>A52-A3</f>
         <v>44993</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="57">
         <f t="shared" ref="H48:H53" si="1">I47</f>
         <v>6490.57142857143</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="57">
         <f t="shared" si="0"/>
         <v>12918.1428571429</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="52">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I48)-J47</f>
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="23">
+      <c r="A49" s="58">
         <v>13625</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="55">
         <v>13625</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="53">
         <v>13625</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="46">
         <v>13625</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="56">
         <v>13625</v>
       </c>
       <c r="G49">
         <f>G48/G47</f>
         <v>6427.57142857143</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="57">
         <f t="shared" si="1"/>
         <v>12918.1428571429</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="57">
         <f t="shared" si="0"/>
         <v>19345.7142857143</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="57">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I49)-SUM(J47:J48)</f>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="23">
+      <c r="A50" s="58">
         <v>16616</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="55">
         <v>16616</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="53">
         <v>16616</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="46">
         <v>16616</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="56">
         <v>16616</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="57">
         <f t="shared" si="1"/>
         <v>19345.7142857143</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="57">
         <f t="shared" si="0"/>
         <v>25773.2857142857</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="57">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I50)-SUM(J47:J49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="24">
+      <c r="A51" s="59">
         <v>45056</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="58">
         <v>45056</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="55">
         <v>45056</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="60">
         <v>45056</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="61">
         <v>45056</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="57">
         <f t="shared" si="1"/>
         <v>25773.2857142857</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="57">
         <f t="shared" si="0"/>
         <v>32200.8571428571</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="57">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I51)-SUM(J47:J50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="24">
+      <c r="A52" s="59">
         <v>45056</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="58">
         <v>45056</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="55">
         <v>45056</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="60">
         <v>45056</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E52" s="61">
         <v>45056</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="57">
         <f t="shared" si="1"/>
         <v>32200.8571428571</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="57">
         <f t="shared" si="0"/>
         <v>38628.4285714286</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="57">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I52)-SUM(J47:J51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="8:10">
-      <c r="H53" s="22">
+      <c r="H53" s="57">
         <f t="shared" si="1"/>
         <v>38628.4285714286</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="57">
         <f t="shared" si="0"/>
         <v>45056</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="57">
         <f>COUNTIF($E$3:$E$52,"&lt;"&amp;I53)-SUM(J47:J52)</f>
         <v>0</v>
       </c>
@@ -4760,7 +6529,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:XFC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4771,15 +6540,3060 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1024</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>51.85546875</v>
+      </c>
+      <c r="E3">
+        <v>0.423007376957685</v>
+      </c>
+      <c r="F3">
+        <v>0.204164579510689</v>
+      </c>
+      <c r="G3">
+        <v>235.339464187622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>84.86328125</v>
+      </c>
+      <c r="E4">
+        <v>0.413880403570753</v>
+      </c>
+      <c r="F4">
+        <v>0.695303738117218</v>
+      </c>
+      <c r="G4">
+        <v>260.759519338608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>60.15625</v>
+      </c>
+      <c r="E5">
+        <v>0.488426551688462</v>
+      </c>
+      <c r="F5">
+        <v>0.533390820026398</v>
+      </c>
+      <c r="G5">
+        <v>279.766035795212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>96.6796875</v>
+      </c>
+      <c r="E6">
+        <v>0.410387155774515</v>
+      </c>
+      <c r="F6">
+        <v>0.606837868690491</v>
+      </c>
+      <c r="G6">
+        <v>288.740443229675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>96.484375</v>
+      </c>
+      <c r="E7">
+        <v>0.3291015625</v>
+      </c>
+      <c r="F7">
+        <v>0.623369753360748</v>
+      </c>
+      <c r="G7">
+        <v>274.443928718567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>94.04296875</v>
+      </c>
+      <c r="E8">
+        <v>0.32672945800914</v>
+      </c>
+      <c r="F8">
+        <v>0.709461510181427</v>
+      </c>
+      <c r="G8">
+        <v>255.967425107956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1024</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>97.75390625</v>
+      </c>
+      <c r="E9">
+        <v>0.3681640625</v>
+      </c>
+      <c r="F9">
+        <v>0.552709400653839</v>
+      </c>
+      <c r="G9">
+        <v>235.122797489166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>93.45703125</v>
+      </c>
+      <c r="E10">
+        <v>0.393845290876925</v>
+      </c>
+      <c r="F10">
+        <v>0.709340214729309</v>
+      </c>
+      <c r="G10">
+        <v>878.048425674438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>99.0234375</v>
+      </c>
+      <c r="E11">
+        <v>0.391262895686547</v>
+      </c>
+      <c r="F11">
+        <v>0.686295092105865</v>
+      </c>
+      <c r="G11">
+        <v>259.046024560928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>98.828125</v>
+      </c>
+      <c r="E12">
+        <v>0.390354671282694</v>
+      </c>
+      <c r="F12">
+        <v>0.715250134468079</v>
+      </c>
+      <c r="G12">
+        <v>236.499933481216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>90.625</v>
+      </c>
+      <c r="E13">
+        <v>0.417063148789263</v>
+      </c>
+      <c r="F13">
+        <v>0.665942907333374</v>
+      </c>
+      <c r="G13">
+        <v>231.911664485931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>99.90234375</v>
+      </c>
+      <c r="E14">
+        <v>0.354815455590142</v>
+      </c>
+      <c r="F14">
+        <v>0.647228419780731</v>
+      </c>
+      <c r="G14">
+        <v>247.156242132187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1024</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>94.43359375</v>
+      </c>
+      <c r="E15">
+        <v>0.387622849385176</v>
+      </c>
+      <c r="F15">
+        <v>0.514358460903168</v>
+      </c>
+      <c r="G15">
+        <v>235.320066928863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>51.85546875</v>
+      </c>
+      <c r="E17">
+        <v>0.423007376957685</v>
+      </c>
+      <c r="F17">
+        <v>0.204164579510689</v>
+      </c>
+      <c r="G17">
+        <v>225.416270017624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1024</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>84.86328125</v>
+      </c>
+      <c r="E18">
+        <v>0.413880403570753</v>
+      </c>
+      <c r="F18">
+        <v>0.695303738117218</v>
+      </c>
+      <c r="G18">
+        <v>215.418991565704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1024</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>51.85546875</v>
+      </c>
+      <c r="E20">
+        <v>0.423007376957685</v>
+      </c>
+      <c r="F20">
+        <v>0.204164579510689</v>
+      </c>
+      <c r="G20">
+        <v>250.205288648605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1024</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>84.86328125</v>
+      </c>
+      <c r="E21">
+        <v>0.413880403570753</v>
+      </c>
+      <c r="F21">
+        <v>0.695303738117218</v>
+      </c>
+      <c r="G21">
+        <v>244.307848215103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1024</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>60.15625</v>
+      </c>
+      <c r="E22">
+        <v>0.488426551688462</v>
+      </c>
+      <c r="F22">
+        <v>0.533390820026398</v>
+      </c>
+      <c r="G22">
+        <v>221.6677069664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>96.6796875</v>
+      </c>
+      <c r="E23">
+        <v>0.410387155774515</v>
+      </c>
+      <c r="F23">
+        <v>0.606837868690491</v>
+      </c>
+      <c r="G23">
+        <v>223.684284210205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1024</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>96.484375</v>
+      </c>
+      <c r="E24">
+        <v>0.3291015625</v>
+      </c>
+      <c r="F24">
+        <v>0.623369753360748</v>
+      </c>
+      <c r="G24">
+        <v>225.173572778702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>94.04296875</v>
+      </c>
+      <c r="E25">
+        <v>0.32672945800914</v>
+      </c>
+      <c r="F25">
+        <v>0.709461510181427</v>
+      </c>
+      <c r="G25">
+        <v>245.809993267059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>97.75390625</v>
+      </c>
+      <c r="E26">
+        <v>0.3681640625</v>
+      </c>
+      <c r="F26">
+        <v>0.552709400653839</v>
+      </c>
+      <c r="G26">
+        <v>254.909791707993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>1024</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>93.45703125</v>
+      </c>
+      <c r="E27">
+        <v>0.393845290876925</v>
+      </c>
+      <c r="F27">
+        <v>0.709340214729309</v>
+      </c>
+      <c r="G27">
+        <v>248.910944223404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>1024</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>99.0234375</v>
+      </c>
+      <c r="E28">
+        <v>0.391262895686547</v>
+      </c>
+      <c r="F28">
+        <v>0.686295092105865</v>
+      </c>
+      <c r="G28">
+        <v>225.215412139893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>1024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>98.828125</v>
+      </c>
+      <c r="E29">
+        <v>0.390354671282694</v>
+      </c>
+      <c r="F29">
+        <v>0.715250134468079</v>
+      </c>
+      <c r="G29">
+        <v>228.794573307037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>1024</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>90.625</v>
+      </c>
+      <c r="E30">
+        <v>0.417063148789263</v>
+      </c>
+      <c r="F30">
+        <v>0.665942907333374</v>
+      </c>
+      <c r="G30">
+        <v>225.291565656662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>1024</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>99.90234375</v>
+      </c>
+      <c r="E31">
+        <v>0.354815455590142</v>
+      </c>
+      <c r="F31">
+        <v>0.647228419780731</v>
+      </c>
+      <c r="G31">
+        <v>225.786068201065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>1024</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>94.43359375</v>
+      </c>
+      <c r="E32">
+        <v>0.387622849385176</v>
+      </c>
+      <c r="F32">
+        <v>0.514358460903168</v>
+      </c>
+      <c r="G32">
+        <v>253.625064373016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1024</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>98.92578125</v>
+      </c>
+      <c r="E33">
+        <v>0.362630208333333</v>
+      </c>
+      <c r="F33">
+        <v>0.683717846870422</v>
+      </c>
+      <c r="G33">
+        <v>228.700549125671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>1024</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>89.84375</v>
+      </c>
+      <c r="E34">
+        <v>0.388636957543592</v>
+      </c>
+      <c r="F34">
+        <v>0.706366300582886</v>
+      </c>
+      <c r="G34">
+        <v>226.1574447155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>1024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>71.97265625</v>
+      </c>
+      <c r="E35">
+        <v>0.360404501872836</v>
+      </c>
+      <c r="F35">
+        <v>0.532127141952515</v>
+      </c>
+      <c r="G35">
+        <v>228.637310028076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>1024</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>69.23828125</v>
+      </c>
+      <c r="E36">
+        <v>0.565699640729387</v>
+      </c>
+      <c r="F36">
+        <v>0.541957080364227</v>
+      </c>
+      <c r="G36">
+        <v>235.497131824493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>1024</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>95.41015625</v>
+      </c>
+      <c r="E37">
+        <v>0.390014132193755</v>
+      </c>
+      <c r="F37">
+        <v>0.517609596252441</v>
+      </c>
+      <c r="G37">
+        <v>259.770479440689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>1024</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>97.55859375</v>
+      </c>
+      <c r="E38">
+        <v>0.355759353376925</v>
+      </c>
+      <c r="F38">
+        <v>0.602146625518799</v>
+      </c>
+      <c r="G38">
+        <v>221.631771087647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>1024</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>99.31640625</v>
+      </c>
+      <c r="E39">
+        <v>0.402488941540166</v>
+      </c>
+      <c r="F39">
+        <v>0.720021605491638</v>
+      </c>
+      <c r="G39">
+        <v>218.50165772438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>1024</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>91.30859375</v>
+      </c>
+      <c r="E40">
+        <v>0.551322282893428</v>
+      </c>
+      <c r="F40">
+        <v>0.386879593133926</v>
+      </c>
+      <c r="G40">
+        <v>226.575693130493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>1024</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>0.375165576348081</v>
+      </c>
+      <c r="F41">
+        <v>0.634380877017975</v>
+      </c>
+      <c r="G41">
+        <v>223.478568792343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>1024</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>82.91015625</v>
+      </c>
+      <c r="E42">
+        <v>0.357404979460019</v>
+      </c>
+      <c r="F42">
+        <v>0.660808861255646</v>
+      </c>
+      <c r="G42">
+        <v>261.496835708618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>1024</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>98.33984375</v>
+      </c>
+      <c r="E43">
+        <v>0.384473144338699</v>
+      </c>
+      <c r="F43">
+        <v>0.655570805072784</v>
+      </c>
+      <c r="G43">
+        <v>223.511367797852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>8960</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>92.9464285714286</v>
+      </c>
+      <c r="E44">
+        <v>0.370141068362275</v>
+      </c>
+      <c r="F44">
+        <v>0.566553950309753</v>
+      </c>
+      <c r="G44">
+        <v>222.182931900024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <v>360</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>90.2777777777778</v>
+      </c>
+      <c r="E45">
+        <v>0.48328776686219</v>
+      </c>
+      <c r="F45">
+        <v>0.69773143529892</v>
+      </c>
+      <c r="G45">
+        <v>225.289889097214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>89.9408284023669</v>
+      </c>
+      <c r="E46">
+        <v>0.46786638757839</v>
+      </c>
+      <c r="F46">
+        <v>0.57273143529892</v>
+      </c>
+      <c r="G46">
+        <v>221.65060710907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>45056</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>70.8473899147727</v>
+      </c>
+      <c r="E47">
+        <v>0.322644179071975</v>
+      </c>
+      <c r="F47">
+        <v>0.804036259651184</v>
+      </c>
+      <c r="G47">
+        <v>217.754283428192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>195</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>92.3076923076923</v>
+      </c>
+      <c r="E48">
+        <v>0.498122286927114</v>
+      </c>
+      <c r="F48">
+        <v>0.659117519855499</v>
+      </c>
+      <c r="G48">
+        <v>233.557288885117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>16616</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>73.4954260953298</v>
+      </c>
+      <c r="E49">
+        <v>0.261009246696823</v>
+      </c>
+      <c r="F49">
+        <v>0.871571600437164</v>
+      </c>
+      <c r="G49">
+        <v>221.861410856247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>13625</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>89.6880733944954</v>
+      </c>
+      <c r="E50">
+        <v>0.250411547016889</v>
+      </c>
+      <c r="F50">
+        <v>0.7022864818573</v>
+      </c>
+      <c r="G50">
+        <v>227.125926494598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>88.5416666666667</v>
+      </c>
+      <c r="E51">
+        <v>0.468802923785511</v>
+      </c>
+      <c r="F51">
+        <v>0.571870505809784</v>
+      </c>
+      <c r="G51">
+        <v>240.781533718109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>567</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>83.0687830687831</v>
+      </c>
+      <c r="E52">
+        <v>0.428648499843317</v>
+      </c>
+      <c r="F52">
+        <v>0.686707496643066</v>
+      </c>
+      <c r="G52">
+        <v>250.248808860779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>960</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>80.7291666666667</v>
+      </c>
+      <c r="E53">
+        <v>0.50242454820416</v>
+      </c>
+      <c r="F53">
+        <v>0.511370658874512</v>
+      </c>
+      <c r="G53">
+        <v>230.655392885208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>1932</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>87.9399585921325</v>
+      </c>
+      <c r="E54">
+        <v>0.374669125774108</v>
+      </c>
+      <c r="F54">
+        <v>0.544112920761108</v>
+      </c>
+      <c r="G54">
+        <v>232.094808578491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>10752</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>94.3452380952381</v>
+      </c>
+      <c r="E55">
+        <v>0.340255519284371</v>
+      </c>
+      <c r="F55">
+        <v>0.410182029008865</v>
+      </c>
+      <c r="G55">
+        <v>230.03404378891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>957</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>78.7878787878788</v>
+      </c>
+      <c r="E56">
+        <v>0.348686227386312</v>
+      </c>
+      <c r="F56">
+        <v>0.588086724281311</v>
+      </c>
+      <c r="G56">
+        <v>226.665787935257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>8960</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>92.96875</v>
+      </c>
+      <c r="E57">
+        <v>0.363453409813727</v>
+      </c>
+      <c r="F57">
+        <v>0.58100038766861</v>
+      </c>
+      <c r="G57">
+        <v>251.025991916656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>95.2380952380952</v>
+      </c>
+      <c r="E58">
+        <v>0.354497354497354</v>
+      </c>
+      <c r="F58">
+        <v>0.8255215883255</v>
+      </c>
+      <c r="G58">
+        <v>252.340492248535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>342</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>78.6549707602339</v>
+      </c>
+      <c r="E59">
+        <v>0.488304093567252</v>
+      </c>
+      <c r="F59">
+        <v>0.538527727127075</v>
+      </c>
+      <c r="G59">
+        <v>232.069690942764</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>2268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>67.636684303351</v>
+      </c>
+      <c r="E60">
+        <v>0.448141808249823</v>
+      </c>
+      <c r="F60">
+        <v>0.445090472698212</v>
+      </c>
+      <c r="G60">
+        <v>222.801688432694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>7371</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>90.7610907610908</v>
+      </c>
+      <c r="E61">
+        <v>0.205904025252076</v>
+      </c>
+      <c r="F61">
+        <v>0.66362076997757</v>
+      </c>
+      <c r="G61">
+        <v>221.893035411835</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>6400</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62">
+        <v>62.1875</v>
+      </c>
+      <c r="E62">
+        <v>0.378343814107369</v>
+      </c>
+      <c r="F62">
+        <v>0.675796210765839</v>
+      </c>
+      <c r="G62">
+        <v>233.808968067169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63">
+        <v>96.5277777777778</v>
+      </c>
+      <c r="E63">
+        <v>0.535472467817642</v>
+      </c>
+      <c r="F63">
+        <v>0.689294040203094</v>
+      </c>
+      <c r="G63">
+        <v>248.050561904907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>1485</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>96.2962962962963</v>
+      </c>
+      <c r="E64">
+        <v>0.528264596536505</v>
+      </c>
+      <c r="F64">
+        <v>0.754867076873779</v>
+      </c>
+      <c r="G64">
+        <v>228.456268310547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>1485</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>92.6599326599327</v>
+      </c>
+      <c r="E65">
+        <v>0.36857903656601</v>
+      </c>
+      <c r="F65">
+        <v>0.646884024143219</v>
+      </c>
+      <c r="G65">
+        <v>216.242934942246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66">
+        <v>88.1118881118881</v>
+      </c>
+      <c r="E66">
+        <v>0.468017949021502</v>
+      </c>
+      <c r="F66">
+        <v>0.333616971969604</v>
+      </c>
+      <c r="G66">
+        <v>240.004432439804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>45056</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67">
+        <v>62.2181285511364</v>
+      </c>
+      <c r="E67">
+        <v>0.488304259242134</v>
+      </c>
+      <c r="F67">
+        <v>0.602053344249725</v>
+      </c>
+      <c r="G67">
+        <v>226.664850473404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>2048</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>97.900390625</v>
+      </c>
+      <c r="E68">
+        <v>0.382407202656926</v>
+      </c>
+      <c r="F68">
+        <v>0.616894960403442</v>
+      </c>
+      <c r="G68">
+        <v>249.096232891083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="39.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="32.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8">
+        <v>355.457300186157</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C30" si="0">B4/60</f>
+        <v>5.92428833643595</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8">
+        <v>495.446259260178</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>8.2574376543363</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8">
+        <v>290.27431344986</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.83790522416433</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8">
+        <v>322.395415067673</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.37325691779455</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8">
+        <v>327.115959167481</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>5.45193265279135</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8">
+        <v>307.541370630264</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.1256895105044</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8">
+        <v>332.758847951889</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>5.54598079919815</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8">
+        <v>335.124427556992</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>5.58540712594987</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8">
+        <v>281.045993566513</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>4.68409989277522</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8">
+        <v>285.444442272186</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7574073712031</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8">
+        <v>285.182964801788</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.75304941336313</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8">
+        <v>290.273231506348</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.83788719177247</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8">
+        <v>286.855539321899</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>4.78092565536498</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8">
+        <v>295.348193883896</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>4.92246989806493</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8">
+        <v>291.84793639183</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>4.86413227319717</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8">
+        <v>285.107187986374</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>4.75178646643957</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8">
+        <v>293.698844194412</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="0"/>
+        <v>4.89498073657353</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8">
+        <v>316.793617725372</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>5.2798936287562</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8">
+        <v>399.615813970566</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6602635661761</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8">
+        <v>342.282614469528</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.7047102411588</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8">
+        <v>272.131553888321</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="0"/>
+        <v>4.53552589813868</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+      <c r="B25" s="8">
+        <v>272.507269144058</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" si="0"/>
+        <v>4.54178781906763</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8">
+        <v>273.266922473908</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>4.55444870789847</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1"/>
+      <c r="B27" s="8">
+        <v>273.984030485153</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>4.56640050808588</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8">
+        <v>271.844398975372</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>4.53073998292287</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="16">
+        <f>AVERAGE(C4:C30)</f>
+        <v>5.13462975187066</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8">
+        <v>270.298038959503</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>4.50496731599172</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1"/>
+      <c r="B30" s="20">
+        <v>264.45771074295</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="0"/>
+        <v>4.4076285123825</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="22">
+        <f>AVERAGE(C34:C60)</f>
+        <v>3.88670638961557</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:17">
+      <c r="A32" s="1"/>
+      <c r="B32" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1"/>
+      <c r="B33" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1"/>
+      <c r="B34" s="28">
+        <v>250.205288648605</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ref="C34:C60" si="1">B34/60</f>
+        <v>4.17008814414342</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1"/>
+      <c r="B35" s="28">
+        <v>244.307848215103</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="1"/>
+        <v>4.07179747025172</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1"/>
+      <c r="B36" s="28">
+        <v>221.6677069664</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" si="1"/>
+        <v>3.69446178277333</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1"/>
+      <c r="B37" s="28">
+        <v>223.684284210205</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="1"/>
+        <v>3.72807140350342</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1"/>
+      <c r="B38" s="28">
+        <v>225.173572778702</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75289287964503</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1"/>
+      <c r="B39" s="28">
+        <v>245.809993267059</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="1"/>
+        <v>4.09683322111766</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1"/>
+      <c r="B40" s="28">
+        <v>254.909791707993</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" si="1"/>
+        <v>4.24849652846654</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1"/>
+      <c r="B41" s="28">
+        <v>248.910944223404</v>
+      </c>
+      <c r="C41" s="9">
+        <f t="shared" si="1"/>
+        <v>4.14851573705673</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1"/>
+      <c r="B42" s="28">
+        <v>225.215412139893</v>
+      </c>
+      <c r="C42" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75359020233154</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1"/>
+      <c r="B43" s="28">
+        <v>228.794573307037</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" si="1"/>
+        <v>3.81324288845062</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1"/>
+      <c r="B44" s="28">
+        <v>225.291565656662</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75485942761103</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1"/>
+      <c r="B45" s="28">
+        <v>225.786068201065</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" si="1"/>
+        <v>3.76310113668442</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1"/>
+      <c r="B46" s="28">
+        <v>253.625064373016</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" si="1"/>
+        <v>4.22708440621694</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1"/>
+      <c r="B47" s="28">
+        <v>228.700549125671</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" si="1"/>
+        <v>3.81167581876119</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1"/>
+      <c r="B48" s="28">
+        <v>226.1574447155</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" si="1"/>
+        <v>3.76929074525833</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1"/>
+      <c r="B49" s="28">
+        <v>228.637310028076</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" si="1"/>
+        <v>3.81062183380127</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1"/>
+      <c r="B50" s="28">
+        <v>235.497131824493</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" si="1"/>
+        <v>3.92495219707489</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1"/>
+      <c r="B51" s="28">
+        <v>259.770479440689</v>
+      </c>
+      <c r="C51" s="9">
+        <f t="shared" si="1"/>
+        <v>4.32950799067815</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1"/>
+      <c r="B52" s="28">
+        <v>221.631771087647</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" si="1"/>
+        <v>3.69386285146078</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1"/>
+      <c r="B53" s="28">
+        <v>218.50165772438</v>
+      </c>
+      <c r="C53" s="9">
+        <f t="shared" si="1"/>
+        <v>3.64169429540634</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1"/>
+      <c r="B54" s="28">
+        <v>226.575693130493</v>
+      </c>
+      <c r="C54" s="9">
+        <f t="shared" si="1"/>
+        <v>3.77626155217489</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1"/>
+      <c r="B55" s="28">
+        <v>223.478568792343</v>
+      </c>
+      <c r="C55" s="9">
+        <f t="shared" si="1"/>
+        <v>3.72464281320572</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1"/>
+      <c r="B56" s="28">
+        <v>261.496835708618</v>
+      </c>
+      <c r="C56" s="9">
+        <f t="shared" si="1"/>
+        <v>4.35828059514364</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1"/>
+      <c r="B57" s="28">
+        <v>223.511367797852</v>
+      </c>
+      <c r="C57" s="9">
+        <f t="shared" si="1"/>
+        <v>3.72518946329753</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1"/>
+      <c r="B58" s="28">
+        <v>222.182931900024</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" si="1"/>
+        <v>3.70304886500041</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1"/>
+      <c r="B59" s="28">
+        <v>225.289889097214</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" si="1"/>
+        <v>3.75483148495356</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1"/>
+      <c r="B60" s="29">
+        <v>221.65060710907</v>
+      </c>
+      <c r="C60" s="21">
+        <f t="shared" si="1"/>
+        <v>3.69417678515116</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E25:I26"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>